--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="620" windowWidth="41180" windowHeight="19020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6240" yWindow="620" windowWidth="41180" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="OpenCASCADESphereExample" sheetId="1" r:id="rId1"/>
     <sheet name="OpenCASCADECylinderExample" sheetId="2" r:id="rId2"/>
     <sheet name="OpenCASCADEBoxExample" sheetId="3" r:id="rId3"/>
     <sheet name="VTKExample" sheetId="4" r:id="rId4"/>
+    <sheet name="vtkSphereExample" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="29">
   <si>
     <t>threads</t>
   </si>
@@ -91,6 +92,24 @@
   </si>
   <si>
     <t>0m0.040s</t>
+  </si>
+  <si>
+    <t>0m7.773s</t>
+  </si>
+  <si>
+    <t>0m7.672s</t>
+  </si>
+  <si>
+    <t>0m0.094s</t>
+  </si>
+  <si>
+    <t>0m7.803s</t>
+  </si>
+  <si>
+    <t>0m7.717s</t>
+  </si>
+  <si>
+    <t>0m0.073s</t>
   </si>
 </sst>
 </file>
@@ -4052,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6678,7 +6697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C12"/>
     </sheetView>
   </sheetViews>
@@ -6754,6 +6773,74 @@
       </c>
       <c r="C12" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
